--- a/data/trans_dic/P68-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P68-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P68-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P68-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>18,89; 33,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>34,76; 51,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>8,42; 19,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>18,17; 35,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>30,78; 50,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>7,48; 15,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>20,53; 31,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>35,57; 49,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,88; 15,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>21,43; 32,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>25,66; 41,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>41,15; 56,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>14,58; 27,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>17,59; 33,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>19,95; 36,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>28,05; 47,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>22,89; 35,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>21,87; 30,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>24,61; 36,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>38,42; 49,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>19,14; 28,73</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>15,15; 27,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>12,18; 24,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>11,14; 25,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>27,55; 42,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>15,61; 33,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>13,96; 31,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>8,58; 23,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>30,54; 45,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>17,28; 27,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>14,5; 24,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>11,55; 21,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>30,47; 41,12</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,2%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>20,38; 32,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>26,38; 38,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>20,15; 37,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>16,63; 33,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>11,32; 23,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>24,58; 37,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>26,85; 48,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>23,34; 44,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>18,96; 27,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>27,81; 36,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>25,56; 39,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>22,28; 36,05</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>13,93; 29,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>11,51; 29,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>10,47; 28,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>10,45; 21,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>6,13; 27,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>10,47; 34,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>3,82; 20,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>6,63; 14,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>13,46; 25,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>14,0; 27,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>9,93; 22,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>9,75; 16,66</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>20,23; 34,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>28,65; 47,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>13,35; 29,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>17,81; 30,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>10,87; 27,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>17,75; 41,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>4,6; 19,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>25,66; 43,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>18,7; 29,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>27,14; 42,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>11,61; 22,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>22,46; 33,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,89%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>21,55; 31,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>14,97; 25,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>18,09; 27,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>18,34; 28,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>18,13; 31,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>19,5; 32,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>15,4; 24,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>19,34; 28,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>21,85; 29,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>18,41; 26,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>17,68; 24,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>19,63; 26,37</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>19,74; 28,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>9,62; 16,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>8,73; 16,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>9,3; 17,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>15,91; 25,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>8,03; 17,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>5,67; 13,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>15,74; 27,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>19,48; 26,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>9,85; 15,59</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,05; 13,54</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>12,81; 19,8</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,72; 26,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>21,07; 25,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,39; 27,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,24; 21,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,7; 24,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,1; 25,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,53; 23,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>21,98; 27,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,24; 25,33</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>21,35; 24,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>21,43; 24,9</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>19,82; 23,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P68-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,95; 40,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 19,14</t>
+          <t>8,12; 19,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,05; 46,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,45</t>
+          <t>7,41; 15,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,07; 40,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,66</t>
+          <t>8,73; 15,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 27,35</t>
+          <t>14,77; 27,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,89; 35,3</t>
+          <t>22,97; 35,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,14; 28,73</t>
+          <t>19,08; 28,88</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,55; 42,04</t>
+          <t>27,4; 42,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,54; 45,55</t>
+          <t>30,6; 45,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,47; 41,12</t>
+          <t>30,14; 40,87</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,33%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,38; 38,88</t>
+          <t>25,44; 42,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 33,48</t>
+          <t>16,37; 33,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 37,9</t>
+          <t>20,52; 38,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,34; 44,31</t>
+          <t>13,49; 56,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,81; 36,81</t>
+          <t>25,7; 38,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 36,05</t>
+          <t>16,84; 45,08</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 21,92</t>
+          <t>10,51; 21,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,44</t>
+          <t>6,71; 14,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 16,66</t>
+          <t>9,79; 16,68</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>28,02%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,81; 30,97</t>
+          <t>17,63; 30,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,66; 43,42</t>
+          <t>25,91; 43,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,46; 33,45</t>
+          <t>22,33; 33,18</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,75%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,34; 28,3</t>
+          <t>17,95; 27,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,34; 28,09</t>
+          <t>19,33; 28,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 26,37</t>
+          <t>19,52; 26,27</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,24</t>
+          <t>3,06; 15,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,74; 27,08</t>
+          <t>15,57; 26,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,81; 19,8</t>
+          <t>5,4; 18,26</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>20,49%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,24; 21,92</t>
+          <t>12,01; 20,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21,98; 27,03</t>
+          <t>20,84; 30,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 23,36</t>
+          <t>15,84; 23,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P68-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,89; 33,47</t>
+          <t>19,42; 33,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 40,96</t>
+          <t>23,95; 41,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,76; 51,65</t>
+          <t>34,57; 51,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 19,02</t>
+          <t>8,28; 19,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 35,64</t>
+          <t>18,15; 34,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 46,07</t>
+          <t>23,89; 44,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,78; 50,61</t>
+          <t>30,31; 50,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,58</t>
+          <t>7,08; 15,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,53; 31,7</t>
+          <t>20,45; 31,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 40,27</t>
+          <t>26,72; 40,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 49,29</t>
+          <t>35,49; 48,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,84</t>
+          <t>8,87; 15,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 32,32</t>
+          <t>20,89; 33,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,66; 41,75</t>
+          <t>25,52; 40,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 56,9</t>
+          <t>42,05; 57,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 27,8</t>
+          <t>14,62; 28,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 33,56</t>
+          <t>18,06; 32,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 36,99</t>
+          <t>20,46; 37,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,05; 47,02</t>
+          <t>27,76; 46,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 35,11</t>
+          <t>22,43; 35,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 30,77</t>
+          <t>21,66; 31,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,61; 36,44</t>
+          <t>24,72; 36,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,42; 49,93</t>
+          <t>37,83; 50,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 28,88</t>
+          <t>19,09; 28,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 27,55</t>
+          <t>15,08; 27,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 24,91</t>
+          <t>11,7; 24,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 25,19</t>
+          <t>11,14; 24,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,4; 42,0</t>
+          <t>26,32; 42,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 33,47</t>
+          <t>16,02; 32,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 31,69</t>
+          <t>14,25; 34,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 23,37</t>
+          <t>8,48; 24,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,6; 45,46</t>
+          <t>30,62; 45,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 27,37</t>
+          <t>17,0; 27,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,87</t>
+          <t>14,55; 25,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 21,63</t>
+          <t>11,92; 21,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,14; 40,87</t>
+          <t>30,37; 41,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,82</t>
+          <t>20,16; 32,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 42,49</t>
+          <t>25,89; 42,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 37,58</t>
+          <t>20,58; 37,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 33,5</t>
+          <t>16,85; 33,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 23,86</t>
+          <t>11,56; 24,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 38,86</t>
+          <t>19,85; 38,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,85; 48,98</t>
+          <t>27,48; 49,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 56,15</t>
+          <t>12,37; 54,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 27,79</t>
+          <t>18,55; 26,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 38,45</t>
+          <t>24,6; 37,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 39,51</t>
+          <t>25,84; 39,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 45,08</t>
+          <t>16,93; 44,65</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,93; 29,44</t>
+          <t>13,47; 29,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 29,14</t>
+          <t>11,71; 29,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 28,99</t>
+          <t>11,12; 29,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,51; 21,88</t>
+          <t>10,41; 21,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 27,41</t>
+          <t>6,22; 25,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 34,18</t>
+          <t>11,78; 35,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 20,61</t>
+          <t>4,59; 21,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,62</t>
+          <t>6,87; 15,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 25,98</t>
+          <t>13,14; 26,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,0; 27,96</t>
+          <t>13,78; 28,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,93; 22,3</t>
+          <t>9,32; 23,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,68</t>
+          <t>9,8; 16,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 34,62</t>
+          <t>20,18; 34,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,65; 47,96</t>
+          <t>28,9; 47,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 29,37</t>
+          <t>14,02; 30,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 30,79</t>
+          <t>17,3; 30,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,87; 27,44</t>
+          <t>9,67; 26,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 41,29</t>
+          <t>16,56; 40,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 19,62</t>
+          <t>4,19; 19,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 43,5</t>
+          <t>26,74; 44,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,7; 29,81</t>
+          <t>18,81; 28,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,14; 42,66</t>
+          <t>27,38; 42,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 22,19</t>
+          <t>10,87; 22,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 33,18</t>
+          <t>22,83; 33,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,55; 31,3</t>
+          <t>22,02; 31,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,97; 25,82</t>
+          <t>15,66; 25,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 27,28</t>
+          <t>17,71; 26,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,95; 27,94</t>
+          <t>17,65; 27,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 31,63</t>
+          <t>18,32; 30,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,5; 32,48</t>
+          <t>18,76; 32,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 24,71</t>
+          <t>15,2; 24,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,33; 28,11</t>
+          <t>19,05; 28,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,85; 29,59</t>
+          <t>21,86; 29,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 26,31</t>
+          <t>18,34; 26,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 24,41</t>
+          <t>17,63; 24,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,52; 26,27</t>
+          <t>19,44; 25,94</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,74; 28,16</t>
+          <t>20,22; 28,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,7</t>
+          <t>9,64; 16,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,73; 16,13</t>
+          <t>8,34; 16,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 15,94</t>
+          <t>3,24; 16,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,95</t>
+          <t>15,99; 26,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,03; 17,16</t>
+          <t>7,89; 16,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,4</t>
+          <t>5,64; 13,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 26,22</t>
+          <t>15,89; 26,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,48; 26,0</t>
+          <t>19,7; 25,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,59</t>
+          <t>9,82; 15,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,54</t>
+          <t>8,42; 14,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 18,26</t>
+          <t>6,28; 18,1</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,72; 26,87</t>
+          <t>22,82; 26,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,07; 25,59</t>
+          <t>21,2; 25,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,26</t>
+          <t>22,58; 27,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,01; 20,98</t>
+          <t>11,41; 20,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,7; 24,18</t>
+          <t>19,17; 24,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,89</t>
+          <t>20,07; 25,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,53; 23,46</t>
+          <t>18,57; 23,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,53</t>
+          <t>20,89; 30,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,24; 25,33</t>
+          <t>22,11; 25,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>21,35; 24,73</t>
+          <t>21,42; 24,82</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>21,43; 24,9</t>
+          <t>21,5; 25,1</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,45</t>
+          <t>16,16; 23,17</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensan que su trabajo les afecta negativamente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42843</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40373</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58577</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24069</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30145</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>40884</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15755</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71463</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70518</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>99461</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39824</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31941; 54640</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30130; 52508</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47068; 70552</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16086; 37037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20146; 38323</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20900; 38630</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30607; 50813</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10219; 22745</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56337; 87304</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56999; 85793</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84173; 115694</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30025; 52539</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>72397</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82786</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46280</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32688</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34315</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42697</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45443</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105084</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>90905</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>125483</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91723</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>56491; 90202</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43954; 69149</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71604; 97974</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32796; 64246</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23840; 43408</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25098; 46175</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31554; 52905</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35346; 56613</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87192; 125912</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72894; 107878</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>107435; 141981</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>72892; 110425</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36615</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25305</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21254</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49495</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21724</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17935</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45927</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>58339</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43240</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33755</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95422</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26330; 47660</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16758; 34680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13686; 29734</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38637; 62247</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15008; 30537</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11736; 28074</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7063; 20309</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37013; 55372</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45620; 74708</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32815; 56689</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24580; 45077</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81283; 111152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58323</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47067</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40353</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22705</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29535</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29935</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80652</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81029</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76603</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62400</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45072; 71575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36948; 60273</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23081; 42426</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28415; 57152</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15567; 32546</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20340; 39788</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21976; 39290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31971; 141046</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>66440; 96642</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60302; 91385</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49661; 75600</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>72314; 190720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22955</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16169</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14870</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17757</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6970</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11661</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10986</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29925</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27830</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20641</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28743</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14890; 32343</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9642; 23997</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8896; 23793</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11895; 24755</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3035; 12332</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6679; 19933</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2546; 11698</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7266; 15969</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20941; 41422</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19160; 39049</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12625; 31590</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21544; 36800</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41809</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44339</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31616</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14094</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15184</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7427</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30215</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55903</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>59523</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>29860</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>61831</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31258; 53004</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33896; 56060</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14931; 32442</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23230; 41019</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8009; 21852</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9155; 22382</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3169; 14490</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23108; 38072</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>44716; 68872</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>47247; 72663</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>19790; 40660</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>50385; 73083</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88448</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54430</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>78342</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>73178</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>43535</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46380</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>55682</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70527</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>131983</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>100810</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>134024</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>143705</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>73942; 105450</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42742; 70201</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>62779; 95168</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>58258; 91254</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>32901; 55549</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34170; 59262</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42960; 70265</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>57465; 84478</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>112692; 153089</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>83475; 119744</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>112306; 155696</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>122794; 163880</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>108915</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>47179</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>39274</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>56757</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>49786</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>30672</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21400</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>54710</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>158701</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>77851</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>60674</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>111467</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>92786; 128891</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>34911; 61080</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27356; 53518</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>20343; 101637</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>38214; 64003</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>20483; 43470</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>13569; 32749</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>42961; 72556</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>137497; 181428</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>61059; 96625</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>47831; 79650</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>56470; 162673</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>472305</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>331452</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>339505</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>216298</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>354215</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>692427</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>547280</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>566299</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>693720</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>432161; 506905</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>300778; 363978</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>318451; 384700</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>221407; 403545</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>195809; 249326</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>190384; 244971</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>191645; 245787</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>301871; 435034</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>644460; 737682</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>506992; 587553</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>525085; 613144</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>547345; 784691</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>